--- a/data/data_source/RAG vs 우리은행 챗봇.xlsx
+++ b/data/data_source/RAG vs 우리은행 챗봇.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fas\Bank_FAQ\data\data_source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9387AD94-E1EB-4B0A-800E-F8E84CA10162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B7139-DA29-4016-8571-CA296498F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="0" windowWidth="26250" windowHeight="21705" xr2:uid="{6E3B12BE-881B-4898-B7F1-ED7F6284DBB7}"/>
+    <workbookView xWindow="5955" yWindow="2565" windowWidth="22680" windowHeight="18000" xr2:uid="{6E3B12BE-881B-4898-B7F1-ED7F6284DBB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1725,10 +1725,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC5AF93-4F85-4588-ACE1-DD32D4126F1A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.35"/>
